--- a/risorse.xlsx
+++ b/risorse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yurifilippomohorich/Downloads/csm_final/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Postazione01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15123430-8B0B-214F-ADC5-BF17C8F16783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59C059-4629-40ED-BE0F-52842E67608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>risorsa</t>
   </si>
@@ -451,9 +451,6 @@
     <t>C141</t>
   </si>
   <si>
-    <t>C142</t>
-  </si>
-  <si>
     <t>C143</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>C146</t>
   </si>
   <si>
-    <t>C147</t>
-  </si>
-  <si>
     <t>C148</t>
   </si>
   <si>
@@ -478,29 +472,146 @@
     <t>C150</t>
   </si>
   <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>6,50</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>6,00</t>
-  </si>
-  <si>
     <t>disponibile</t>
+  </si>
+  <si>
+    <t>C151</t>
+  </si>
+  <si>
+    <t>C152</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>B231</t>
+  </si>
+  <si>
+    <t>B232</t>
+  </si>
+  <si>
+    <t>B233</t>
+  </si>
+  <si>
+    <t>B234</t>
+  </si>
+  <si>
+    <t>B235</t>
+  </si>
+  <si>
+    <t>B236</t>
+  </si>
+  <si>
+    <t>B237</t>
+  </si>
+  <si>
+    <t>B238</t>
+  </si>
+  <si>
+    <t>B239</t>
+  </si>
+  <si>
+    <t>B240</t>
+  </si>
+  <si>
+    <t>B242</t>
+  </si>
+  <si>
+    <t>B247</t>
+  </si>
+  <si>
+    <t>B253</t>
+  </si>
+  <si>
+    <t>B255</t>
+  </si>
+  <si>
+    <t>B256</t>
+  </si>
+  <si>
+    <t>B257</t>
+  </si>
+  <si>
+    <t>B258</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +623,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -552,10 +669,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,9 +696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,9 +736,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,26 +771,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,26 +806,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -895,15 +982,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,1210 +998,1547 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>152</v>
+      <c r="B155" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/risorse.xlsx
+++ b/risorse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Postazione01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59C059-4629-40ED-BE0F-52842E67608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F4E9F-BD35-4F38-BB0C-6442D2AA14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="1410" windowWidth="26475" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>risorsa</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>B258</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B217</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,15 +2289,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B162" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="3">
         <v>6.5</v>
@@ -2299,15 +2305,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="3">
         <v>5</v>
@@ -2315,15 +2321,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="B166" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3">
         <v>5</v>
@@ -2331,15 +2337,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B169" s="3">
         <v>5</v>
@@ -2347,31 +2353,31 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3">
         <v>7.5</v>
@@ -2379,55 +2385,55 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179" s="3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180" s="3">
         <v>7</v>
@@ -2435,31 +2441,31 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B181" s="3">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B182" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B183" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184" s="3">
         <v>7.5</v>
@@ -2467,47 +2473,47 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B185" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186" s="3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B187" s="3">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B188" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B189" s="3">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B190" s="3">
         <v>7</v>
@@ -2515,15 +2521,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B191" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B192" s="3">
         <v>7</v>
@@ -2531,9 +2537,25 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B195" s="3">
         <v>7</v>
       </c>
     </row>

--- a/risorse.xlsx
+++ b/risorse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Postazione01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F4E9F-BD35-4F38-BB0C-6442D2AA14F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59C059-4629-40ED-BE0F-52842E67608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1410" windowWidth="26475" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>risorsa</t>
   </si>
@@ -605,12 +605,6 @@
   </si>
   <si>
     <t>B258</t>
-  </si>
-  <si>
-    <t>B212</t>
-  </si>
-  <si>
-    <t>B217</t>
   </si>
 </sst>
 </file>
@@ -682,7 +676,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,15 +2283,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B162" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" s="3">
         <v>6.5</v>
@@ -2305,15 +2299,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" s="3">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" s="3">
         <v>5</v>
@@ -2321,15 +2315,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B166" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3">
         <v>5</v>
@@ -2337,15 +2331,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" s="3">
         <v>5</v>
@@ -2353,31 +2347,31 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B171" s="3">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B172" s="3">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B173" s="3">
         <v>7.5</v>
@@ -2385,55 +2379,55 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B174" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B175" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B176" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B177" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B178" s="3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B179" s="3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B180" s="3">
         <v>7</v>
@@ -2441,31 +2435,31 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B181" s="3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B182" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B183" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B184" s="3">
         <v>7.5</v>
@@ -2473,47 +2467,47 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B185" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B186" s="3">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B187" s="3">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B188" s="3">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B189" s="3">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B190" s="3">
         <v>7</v>
@@ -2521,15 +2515,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B191" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B192" s="3">
         <v>7</v>
@@ -2537,25 +2531,9 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B193" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" s="3">
         <v>7</v>
       </c>
     </row>

--- a/risorse.xlsx
+++ b/risorse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Postazione01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59C059-4629-40ED-BE0F-52842E67608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3F084D-6355-4CB1-9113-032C3753DCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9930" yWindow="570" windowWidth="26475" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>risorsa</t>
   </si>
@@ -511,6 +511,9 @@
     <t>B211</t>
   </si>
   <si>
+    <t>B212</t>
+  </si>
+  <si>
     <t>B213</t>
   </si>
   <si>
@@ -518,6 +521,9 @@
   </si>
   <si>
     <t>B215</t>
+  </si>
+  <si>
+    <t>B217</t>
   </si>
   <si>
     <t>B218</t>
@@ -611,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,12 +629,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -674,9 +674,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
@@ -1042,7 +1042,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
@@ -1066,7 +1066,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
@@ -1090,7 +1090,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
@@ -1130,7 +1130,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2">
@@ -1154,7 +1154,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2">
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="2">
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2">
@@ -1210,7 +1210,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2">
@@ -1218,7 +1218,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2">
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2">
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2">
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2">
@@ -1250,7 +1250,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2">
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2">
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2">
@@ -1274,7 +1274,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2">
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2">
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2">
@@ -1298,7 +1298,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2">
@@ -1306,7 +1306,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2">
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2">
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2">
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2">
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2">
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="2">
@@ -1354,7 +1354,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="2">
@@ -1362,7 +1362,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="2">
@@ -1370,7 +1370,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="2">
@@ -1378,7 +1378,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="2">
@@ -1386,7 +1386,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="2">
@@ -1394,7 +1394,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="2">
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="2">
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="2">
@@ -1418,7 +1418,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="2">
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="2">
@@ -1434,7 +1434,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="2">
@@ -1442,7 +1442,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="2">
@@ -1450,7 +1450,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="2">
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="2">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="2">
@@ -1474,7 +1474,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="2">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="2">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="2">
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="2">
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2">
@@ -1514,7 +1514,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="2">
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="2">
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2">
@@ -1538,7 +1538,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2">
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="2">
@@ -1554,7 +1554,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="2">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="2">
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="2">
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="2">
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="2">
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="2">
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="2">
@@ -1610,7 +1610,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="2">
@@ -1618,7 +1618,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="2">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="2">
@@ -1634,7 +1634,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="2">
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="2">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="2">
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="2">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="2">
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="2">
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="2">
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="2">
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="2">
@@ -1706,7 +1706,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="2">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="2">
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="2">
@@ -1730,7 +1730,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="2">
@@ -1738,7 +1738,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="2">
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="2">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="2">
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="2">
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="2">
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="2">
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="2">
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="2">
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="2">
@@ -1810,7 +1810,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="2">
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="2">
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="2">
@@ -1834,7 +1834,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="2">
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="2">
@@ -1850,7 +1850,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="2">
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="2">
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="2">
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="2">
@@ -1882,7 +1882,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="2">
@@ -1890,7 +1890,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="2">
@@ -1898,7 +1898,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="2">
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="2">
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="2">
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="2">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="2">
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="2">
@@ -1946,7 +1946,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="2">
@@ -1954,7 +1954,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="2">
@@ -1962,7 +1962,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="2">
@@ -1970,7 +1970,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="2">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="2">
@@ -1986,7 +1986,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="2">
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="2">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="2">
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="2">
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="2">
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="2">
@@ -2034,7 +2034,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="2">
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="2">
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="2">
@@ -2058,7 +2058,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="2">
@@ -2066,7 +2066,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="2">
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="2">
@@ -2082,7 +2082,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="2">
@@ -2090,7 +2090,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="2">
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="2">
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="2">
@@ -2114,7 +2114,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="2">
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="2">
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="2">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="2">
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="2">
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="2">
@@ -2162,7 +2162,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="2">
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="2">
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="2">
@@ -2186,7 +2186,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="2">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="2">
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="3">
@@ -2210,7 +2210,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B153" s="3">
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="3">
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="3">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="3">
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="3">
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="3">
@@ -2258,7 +2258,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="3">
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="3">
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="3">
@@ -2282,15 +2282,15 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="3">
@@ -2298,15 +2298,15 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B164" s="3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="3">
@@ -2314,15 +2314,15 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="3">
-        <v>6.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B167" s="3">
@@ -2330,15 +2330,15 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="3">
-        <v>4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="3">
@@ -2346,31 +2346,31 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="3">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="3">
@@ -2378,87 +2378,87 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" s="3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" s="3">
-        <v>7</v>
-      </c>
-    </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B182" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="3">
@@ -2466,47 +2466,47 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" s="3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>189</v>
-      </c>
-      <c r="B188" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>190</v>
-      </c>
-      <c r="B189" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="3">
@@ -2514,15 +2514,15 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="3">
@@ -2530,15 +2530,30 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="3">
         <v>7</v>
       </c>
     </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="3">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>